--- a/Чек-лист. Вадимова Форма РЕГИСТРАЦИИ.xlsx
+++ b/Чек-лист. Вадимова Форма РЕГИСТРАЦИИ.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QA\work_place\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{48F583FB-7F71-46BD-8CF2-9FC8694D33E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F679B634-6383-4608-8936-50A59BD5D10D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{F8EDF363-6779-4E57-BEC0-080F40C6FD7A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>ID</t>
   </si>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t>Поле не горит красным цветом при любом введение запрещённых символов.</t>
+  </si>
+  <si>
+    <t>СПЕКА</t>
   </si>
 </sst>
 </file>
@@ -530,7 +533,7 @@
   <dimension ref="A1:X287"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -893,7 +896,9 @@
       <c r="X11" s="3"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
+      <c r="A12" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
